--- a/Step.XLSX
+++ b/Step.XLSX
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUEGUEN\Desktop\WSApp\IM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF8F5A0-1B46-4473-BE09-BCFCF9339DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871EEED5-324A-4482-A965-FF8DCC0361DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="930" windowWidth="8910" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Data Engineering</t>
   </si>
@@ -64,14 +75,37 @@
   </si>
   <si>
     <t>Content based Filtering</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Valeur nulle et abérante (modif class et sensor)</t>
+  </si>
+  <si>
+    <t>init, sensor, user(store dans l'exemple)</t>
+  </si>
+  <si>
+    <t>Api creation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,8 +133,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,84 +417,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B19"/>
+  <dimension ref="A2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="D2">
+        <f>(D3*E3+D9*E9+D10*E10+D11*E11+D12*E12+D13*E13)/SUM(D3,D9:D13)</f>
+        <v>7.456445993031359E-2</v>
+      </c>
+      <c r="E2">
+        <f>D2*100</f>
+        <v>7.4564459930313589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="E3" s="2">
+        <f>((E4*D4)+(D5*E5)+(D6*E6)+(D7*E7)+D8*E8)/SUM(D4:D8)</f>
+        <v>0.52195121951219514</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E3*100</f>
+        <v>52.195121951219512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Step.XLSX
+++ b/Step.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUEGUEN\Desktop\WSApp\IM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871EEED5-324A-4482-A965-FF8DCC0361DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C3C51D-69E7-42B9-8263-6F3FEB3414B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,11 +436,11 @@
       </c>
       <c r="D2">
         <f>(D3*E3+D9*E9+D10*E10+D11*E11+D12*E12+D13*E13)/SUM(D3,D9:D13)</f>
-        <v>7.456445993031359E-2</v>
+        <v>7.8048780487804864E-2</v>
       </c>
       <c r="E2">
         <f>D2*100</f>
-        <v>7.4564459930313589</v>
+        <v>7.8048780487804867</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -453,11 +453,11 @@
       </c>
       <c r="E3" s="2">
         <f>((E4*D4)+(D5*E5)+(D6*E6)+(D7*E7)+D8*E8)/SUM(D4:D8)</f>
-        <v>0.52195121951219514</v>
+        <v>0.54634146341463408</v>
       </c>
       <c r="F3" s="2">
         <f>E3*100</f>
-        <v>52.195121951219512</v>
+        <v>54.634146341463406</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/Step.XLSX
+++ b/Step.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUEGUEN\Desktop\WSApp\IM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C3C51D-69E7-42B9-8263-6F3FEB3414B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE3B37-5100-4969-A85B-DD0B5BE99563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,11 +436,11 @@
       </c>
       <c r="D2">
         <f>(D3*E3+D9*E9+D10*E10+D11*E11+D12*E12+D13*E13)/SUM(D3,D9:D13)</f>
-        <v>7.8048780487804864E-2</v>
+        <v>0.24564459930313592</v>
       </c>
       <c r="E2">
         <f>D2*100</f>
-        <v>7.8048780487804867</v>
+        <v>24.564459930313593</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -453,11 +453,11 @@
       </c>
       <c r="E3" s="2">
         <f>((E4*D4)+(D5*E5)+(D6*E6)+(D7*E7)+D8*E8)/SUM(D4:D8)</f>
-        <v>0.54634146341463408</v>
+        <v>0.91951219512195126</v>
       </c>
       <c r="F3" s="2">
         <f>E3*100</f>
-        <v>54.634146341463406</v>
+        <v>91.951219512195124</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -521,6 +521,9 @@
       </c>
       <c r="D9">
         <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">

--- a/Step.XLSX
+++ b/Step.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUEGUEN\Desktop\WSApp\IM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE3B37-5100-4969-A85B-DD0B5BE99563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96771667-196F-4C3D-9967-869DD6995F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -436,11 +436,11 @@
       </c>
       <c r="D2">
         <f>(D3*E3+D9*E9+D10*E10+D11*E11+D12*E12+D13*E13)/SUM(D3,D9:D13)</f>
-        <v>0.24564459930313592</v>
+        <v>0.26567944250871078</v>
       </c>
       <c r="E2">
         <f>D2*100</f>
-        <v>24.564459930313593</v>
+        <v>26.567944250871079</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -453,11 +453,11 @@
       </c>
       <c r="E3" s="2">
         <f>((E4*D4)+(D5*E5)+(D6*E6)+(D7*E7)+D8*E8)/SUM(D4:D8)</f>
-        <v>0.91951219512195126</v>
+        <v>0.95975609756097546</v>
       </c>
       <c r="F3" s="2">
         <f>E3*100</f>
-        <v>91.951219512195124</v>
+        <v>95.975609756097541</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="1">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="1">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
